--- a/Dr_Bannayan/Disease/data/Parameters_Soy.xlsx
+++ b/Dr_Bannayan/Disease/data/Parameters_Soy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\pooya\w\TeamWork\Dr_Bannayan\Disease\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEBE08-B5F0-41C3-97AF-CD2BA8CFB43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E947986-EC27-4819-91DC-2D09E8A37383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="2076" windowWidth="17280" windowHeight="9072" tabRatio="819" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipTcof" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,9 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,74 +352,66 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -424,36 +420,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC45487-200A-42EA-B49A-5BFFFF8D40CF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -463,60 +523,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB409A-CA89-4507-AF75-E0BD2FBE1EEA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="B3" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.22</v>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -529,98 +613,86 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>350</v>
+        <v>595</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>475</v>
+        <v>824</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>610</v>
+        <v>1053</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>740</v>
+        <v>1282</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1135</v>
+        <v>1511</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1660</v>
+        <v>1740</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1925</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2320</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -632,73 +704,73 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" s="2">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +786,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -725,12 +797,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -741,7 +813,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -752,7 +824,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -773,12 +845,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -786,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -794,7 +866,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -802,7 +874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -810,7 +882,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>

--- a/Dr_Bannayan/Disease/data/Parameters_Soy.xlsx
+++ b/Dr_Bannayan/Disease/data/Parameters_Soy.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\pooya\w\TeamWork\Dr_Bannayan\Disease\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E947986-EC27-4819-91DC-2D09E8A37383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE86A4-BAFA-4C5D-B43A-5501BCB28E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ipTcof" sheetId="1" r:id="rId1"/>
-    <sheet name="pTcof" sheetId="2" r:id="rId2"/>
-    <sheet name="RcT" sheetId="3" r:id="rId3"/>
-    <sheet name="DVS8" sheetId="4" r:id="rId4"/>
-    <sheet name="RcA" sheetId="5" r:id="rId5"/>
-    <sheet name="Temperatre" sheetId="6" r:id="rId6"/>
-    <sheet name="Fungicide" sheetId="7" r:id="rId7"/>
-    <sheet name="Fungicide_Residual" sheetId="8" r:id="rId8"/>
+    <sheet name="ip_t_cof" sheetId="1" r:id="rId1"/>
+    <sheet name="p_t_cof" sheetId="2" r:id="rId2"/>
+    <sheet name="rc_t_input" sheetId="3" r:id="rId3"/>
+    <sheet name="dvs_8_input" sheetId="4" r:id="rId4"/>
+    <sheet name="rc_a_input" sheetId="5" r:id="rId5"/>
+    <sheet name="temperatre" sheetId="6" r:id="rId6"/>
+    <sheet name="fungicide" sheetId="7" r:id="rId7"/>
+    <sheet name="fungicide_residual" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -68,7 +68,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,12 +352,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -365,7 +365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -373,7 +373,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -381,7 +381,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>23</v>
       </c>
@@ -389,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>29</v>
       </c>
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -405,11 +405,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
@@ -423,12 +423,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -444,7 +444,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -452,7 +452,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -460,7 +460,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -468,7 +468,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>28</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>36</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>40</v>
       </c>
@@ -525,13 +525,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB409A-CA89-4507-AF75-E0BD2FBE1EEA}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>10</v>
       </c>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>12.5</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>17.5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>23</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -587,7 +587,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>27.5</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -616,9 +616,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>137</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>366</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>595</v>
       </c>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>824</v>
       </c>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1053</v>
       </c>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1282</v>
       </c>
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1511</v>
       </c>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1740</v>
       </c>
@@ -682,20 +682,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -704,12 +705,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -717,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -725,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -733,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -741,7 +742,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -749,7 +750,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -757,7 +758,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -765,7 +766,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -783,10 +784,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,12 +798,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -813,7 +814,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -824,7 +825,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -844,13 +845,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44969899-0DAA-424E-B104-277CF1DB255E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -858,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -866,7 +867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -882,7 +883,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20</v>
       </c>
